--- a/dato.xlsx
+++ b/dato.xlsx
@@ -437,10 +437,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>دينار</t>
+    <t>الدينار</t>
   </si>
   <si>
-    <t>دولار</t>
+    <t>الدولار</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -591,6 +591,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -946,7 +948,7 @@
   <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,11 +980,14 @@
       <c r="A2" s="1">
         <v>27636000</v>
       </c>
-      <c r="B2" s="1">
-        <v>48810.5</v>
+      <c r="B2" s="24">
+        <f>D2+D3</f>
+        <v>65373.35</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="23">
+        <v>16562.849999999999</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -998,7 +1003,9 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="1">
+        <v>48810.5</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -9777,7 +9784,7 @@
       <c r="M551" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:E32">
+  <conditionalFormatting sqref="C2:E2 C4:E32 C3 E3">
     <cfRule type="duplicateValues" dxfId="6" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J32">

--- a/dato.xlsx
+++ b/dato.xlsx
@@ -981,13 +981,10 @@
         <v>27636000</v>
       </c>
       <c r="B2" s="24">
-        <f>D2+D3</f>
         <v>65373.35</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="23">
-        <v>16562.849999999999</v>
-      </c>
+      <c r="D2" s="23"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1003,9 +1000,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="1">
-        <v>48810.5</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>

--- a/dato.xlsx
+++ b/dato.xlsx
@@ -592,7 +592,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
